--- a/testcases/case57.xlsx
+++ b/testcases/case57.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="628">
   <si>
     <t>name</t>
   </si>
@@ -2027,8 +2027,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7809,18 +7809,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7834,43 +7834,46 @@
         <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>502</v>
       </c>
@@ -7883,44 +7886,47 @@
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H2" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>506</v>
       </c>
@@ -7933,44 +7939,47 @@
       <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H3" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>511</v>
       </c>
@@ -7983,44 +7992,47 @@
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H4" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>516</v>
       </c>
@@ -8033,44 +8045,47 @@
       <c r="D5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H5" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>519</v>
       </c>
@@ -8083,44 +8098,47 @@
       <c r="D6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H6" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>521</v>
       </c>
@@ -8133,44 +8151,47 @@
       <c r="D7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H7" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I7" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J7" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="N7" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="O7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>523</v>
       </c>
@@ -8183,44 +8204,47 @@
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H8" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I8" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>527</v>
       </c>
@@ -8233,44 +8257,47 @@
       <c r="D9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H9" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I9" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="K9" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="N9" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="O9" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>532</v>
       </c>
@@ -8283,44 +8310,47 @@
       <c r="D10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>11</v>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H10" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I10" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="N10" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="O10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>537</v>
       </c>
@@ -8333,44 +8363,47 @@
       <c r="D11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>11</v>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H11" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="N11" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="O11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>539</v>
       </c>
@@ -8383,44 +8416,47 @@
       <c r="D12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>11</v>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H12" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I12" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="O12" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>544</v>
       </c>
@@ -8433,44 +8469,47 @@
       <c r="D13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H13" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I13" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="N13" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="O13" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>548</v>
       </c>
@@ -8483,44 +8522,47 @@
       <c r="D14" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>11</v>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H14" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I14" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="N14" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="O14" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>553</v>
       </c>
@@ -8533,44 +8575,47 @@
       <c r="D15" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>11</v>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H15" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I15" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="O15" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>558</v>
       </c>
@@ -8583,44 +8628,47 @@
       <c r="D16" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H16" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I16" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K16" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="N16" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="O16" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>560</v>
       </c>
@@ -8633,44 +8681,47 @@
       <c r="D17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>11</v>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H17" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I17" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J17" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="K17" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="N17" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="O17" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>564</v>
       </c>
@@ -8683,40 +8734,43 @@
       <c r="D18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>284</v>
-      </c>
       <c r="H18" s="0" t="s">
         <v>284</v>
       </c>
       <c r="I18" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="J18" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="K18" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L18" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="O18" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="O18" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="P18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8966,18 +9020,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.53441295546559"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
@@ -8988,64 +9042,67 @@
         <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -9055,65 +9112,68 @@
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -9123,65 +9183,68 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S3" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -9191,65 +9254,68 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="V4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>27</v>
       </c>
@@ -9259,65 +9325,68 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="V5" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>33</v>
       </c>
@@ -9327,65 +9396,68 @@
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="V6" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>36</v>
       </c>
@@ -9395,65 +9467,68 @@
       <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>11</v>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="K7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="V7" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>44</v>
       </c>
@@ -9463,61 +9538,64 @@
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="R8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="S8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="V8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="W8" s="0" t="s">
         <v>11</v>
       </c>
     </row>

--- a/testcases/case57.xlsx
+++ b/testcases/case57.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="628">
   <si>
     <t>name</t>
   </si>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="1" sqref="H2:H18 G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3911,7 +3911,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3937,7 +3937,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3974,7 +3974,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5161,7 +5161,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7809,10 +7809,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7843,33 +7843,36 @@
         <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7895,34 +7898,37 @@
       <c r="G2" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>284</v>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7948,34 +7954,37 @@
       <c r="G3" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>284</v>
+      <c r="H3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8001,34 +8010,37 @@
       <c r="G4" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>284</v>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8054,34 +8066,37 @@
       <c r="G5" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>284</v>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8107,34 +8122,37 @@
       <c r="G6" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>284</v>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8160,34 +8178,37 @@
       <c r="G7" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>284</v>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="L7" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8213,34 +8234,37 @@
       <c r="G8" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>284</v>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8266,34 +8290,37 @@
       <c r="G9" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>284</v>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="L9" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8319,34 +8346,37 @@
       <c r="G10" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>284</v>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="L10" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="O10" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8372,34 +8402,37 @@
       <c r="G11" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>284</v>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J11" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="L11" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="O11" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8425,34 +8458,37 @@
       <c r="G12" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>284</v>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J12" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="L12" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="O12" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="P12" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="P12" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8478,34 +8514,37 @@
       <c r="G13" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>284</v>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J13" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="O13" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="P13" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="P13" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8531,34 +8570,37 @@
       <c r="G14" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>284</v>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J14" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="P14" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8584,34 +8626,37 @@
       <c r="G15" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>284</v>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J15" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K15" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="L15" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="O15" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="P15" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="P15" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8637,34 +8682,37 @@
       <c r="G16" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>284</v>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="L16" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="O16" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="P16" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="P16" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8690,34 +8738,37 @@
       <c r="G17" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>284</v>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="L17" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L17" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="O17" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="P17" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="P17" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8743,34 +8794,37 @@
       <c r="G18" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>284</v>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>284</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="L18" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="L18" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="M18" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="P18" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="P18" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8793,7 +8847,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8858,7 +8912,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8953,7 +9007,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8988,7 +9042,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H2:H18 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9022,8 +9076,8 @@
   </sheetPr>
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="H2:H18 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
